--- a/res/archivos/ActualizaProductos.xlsx
+++ b/res/archivos/ActualizaProductos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farez/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/wcart/res/archivos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CEC8F292-405A-284C-9C23-621DDB779332}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F03EDB6-F613-DF43-9BC7-781D0CB6E2D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="460" windowWidth="25040" windowHeight="14200" xr2:uid="{01CDADD5-FD9F-E64B-BE42-72ABB5DA3C7B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25040" windowHeight="14200" xr2:uid="{01CDADD5-FD9F-E64B-BE42-72ABB5DA3C7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>codigoProducto</t>
   </si>
@@ -52,6 +52,18 @@
   </si>
   <si>
     <t>valorAntes</t>
+  </si>
+  <si>
+    <t>cod001</t>
+  </si>
+  <si>
+    <t>prueba</t>
+  </si>
+  <si>
+    <t>descripcion prueba</t>
+  </si>
+  <si>
+    <t>SI O NO</t>
   </si>
 </sst>
 </file>
@@ -403,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CE0D824-6C3B-AD40-A3B8-5EBA4D3EF10F}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,6 +456,35 @@
         <v>8</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2">
+        <v>5000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2">
+        <v>50000</v>
+      </c>
+      <c r="I2">
+        <v>55000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
